--- a/All136Data/Data0.xlsx
+++ b/All136Data/Data0.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="421">
   <si>
     <t>Social Security Satisfied</t>
   </si>
@@ -998,9 +998,6 @@
     <t>OI</t>
   </si>
   <si>
-    <t>HI</t>
-  </si>
-  <si>
     <t>WI</t>
   </si>
   <si>
@@ -1311,6 +1308,21 @@
   </si>
   <si>
     <t>Year</t>
+  </si>
+  <si>
+    <t>HOI</t>
+  </si>
+  <si>
+    <t>HEI</t>
+  </si>
+  <si>
+    <t>HMA</t>
+  </si>
+  <si>
+    <t>UMA</t>
+  </si>
+  <si>
+    <t>U4564</t>
   </si>
 </sst>
 </file>
@@ -1685,10 +1697,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:CK151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E173" sqref="E173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1706,10 +1719,10 @@
         <v>35</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>414</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>415</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>36</v>
@@ -1724,7 +1737,7 @@
         <v>140</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>37</v>
@@ -1970,7 +1983,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -2239,7 +2252,7 @@
         <v>58.61</v>
       </c>
     </row>
-    <row r="3" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -2508,7 +2521,7 @@
         <v>20.99</v>
       </c>
     </row>
-    <row r="4" spans="1:89" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:89" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -2777,7 +2790,7 @@
         <v>73.95</v>
       </c>
     </row>
-    <row r="5" spans="1:89" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:89" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -3046,7 +3059,7 @@
         <v>15.28</v>
       </c>
     </row>
-    <row r="6" spans="1:89" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:89" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -3315,7 +3328,7 @@
         <v>52.77</v>
       </c>
     </row>
-    <row r="7" spans="1:89" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:89" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -3584,7 +3597,7 @@
         <v>29.69</v>
       </c>
     </row>
-    <row r="8" spans="1:89" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:89" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -3853,7 +3866,7 @@
         <v>45.67</v>
       </c>
     </row>
-    <row r="9" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -4122,7 +4135,7 @@
         <v>23.96</v>
       </c>
     </row>
-    <row r="10" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
@@ -4391,7 +4404,7 @@
         <v>68.2</v>
       </c>
     </row>
-    <row r="11" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
@@ -4660,7 +4673,7 @@
         <v>18.09</v>
       </c>
     </row>
-    <row r="12" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
@@ -4929,7 +4942,7 @@
         <v>63.36</v>
       </c>
     </row>
-    <row r="13" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
@@ -5198,7 +5211,7 @@
         <v>23.92</v>
       </c>
     </row>
-    <row r="14" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>21</v>
       </c>
@@ -5467,7 +5480,7 @@
         <v>69.569999999999993</v>
       </c>
     </row>
-    <row r="15" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
@@ -5736,7 +5749,7 @@
         <v>30.43</v>
       </c>
     </row>
-    <row r="16" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>21</v>
       </c>
@@ -6005,7 +6018,7 @@
         <v>76.52</v>
       </c>
     </row>
-    <row r="17" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>21</v>
       </c>
@@ -6274,7 +6287,7 @@
         <v>23.48</v>
       </c>
     </row>
-    <row r="18" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>21</v>
       </c>
@@ -6543,7 +6556,7 @@
         <v>62.8</v>
       </c>
     </row>
-    <row r="19" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>21</v>
       </c>
@@ -6812,7 +6825,7 @@
         <v>37.200000000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>30</v>
       </c>
@@ -7081,7 +7094,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="21" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>30</v>
       </c>
@@ -7350,7 +7363,7 @@
         <v>99.81</v>
       </c>
     </row>
-    <row r="22" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>30</v>
       </c>
@@ -7619,7 +7632,7 @@
         <v>20.91</v>
       </c>
     </row>
-    <row r="23" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>30</v>
       </c>
@@ -7888,7 +7901,7 @@
         <v>51.7</v>
       </c>
     </row>
-    <row r="24" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>30</v>
       </c>
@@ -8157,7 +8170,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="25" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>30</v>
       </c>
@@ -8426,7 +8439,7 @@
         <v>52.701835198131434</v>
       </c>
     </row>
-    <row r="26" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>30</v>
       </c>
@@ -8695,7 +8708,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>30</v>
       </c>
@@ -9233,7 +9246,7 @@
         <v>41.3</v>
       </c>
     </row>
-    <row r="29" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>30</v>
       </c>
@@ -9502,7 +9515,7 @@
         <v>32.78</v>
       </c>
     </row>
-    <row r="30" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>30</v>
       </c>
@@ -9771,7 +9784,7 @@
         <v>10.402619919090734</v>
       </c>
     </row>
-    <row r="31" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>30</v>
       </c>
@@ -10040,7 +10053,7 @@
         <v>77.748972255693616</v>
       </c>
     </row>
-    <row r="32" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>30</v>
       </c>
@@ -10309,7 +10322,7 @@
         <v>4961.2833333333338</v>
       </c>
     </row>
-    <row r="33" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>30</v>
       </c>
@@ -10578,7 +10591,7 @@
         <v>72.72</v>
       </c>
     </row>
-    <row r="34" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>30</v>
       </c>
@@ -10847,7 +10860,7 @@
         <v>73.95</v>
       </c>
     </row>
-    <row r="35" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>30</v>
       </c>
@@ -11116,7 +11129,7 @@
         <v>37.000322372662794</v>
       </c>
     </row>
-    <row r="36" spans="1:89" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:89" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>30</v>
       </c>
@@ -11385,7 +11398,7 @@
         <v>298.65899999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>30</v>
       </c>
@@ -11654,7 +11667,7 @@
         <v>195.55840000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>30</v>
       </c>
@@ -11923,7 +11936,7 @@
         <v>12.14996548066075</v>
       </c>
     </row>
-    <row r="39" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>30</v>
       </c>
@@ -12192,7 +12205,7 @@
         <v>52.77</v>
       </c>
     </row>
-    <row r="40" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>30</v>
       </c>
@@ -12461,7 +12474,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="41" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>30</v>
       </c>
@@ -12730,7 +12743,7 @@
         <v>46.578250401284109</v>
       </c>
     </row>
-    <row r="42" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>30</v>
       </c>
@@ -12999,7 +13012,7 @@
         <v>63.03790757392089</v>
       </c>
     </row>
-    <row r="43" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>30</v>
       </c>
@@ -13268,7 +13281,7 @@
         <v>11.03</v>
       </c>
     </row>
-    <row r="44" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>30</v>
       </c>
@@ -13537,7 +13550,7 @@
         <v>44.26</v>
       </c>
     </row>
-    <row r="45" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>30</v>
       </c>
@@ -13806,7 +13819,7 @@
         <v>28.125518564248527</v>
       </c>
     </row>
-    <row r="46" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>30</v>
       </c>
@@ -14075,7 +14088,7 @@
         <v>3.0122430382310172</v>
       </c>
     </row>
-    <row r="47" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>30</v>
       </c>
@@ -14344,7 +14357,7 @@
         <v>62.15</v>
       </c>
     </row>
-    <row r="48" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>30</v>
       </c>
@@ -14613,7 +14626,7 @@
         <v>68.2</v>
       </c>
     </row>
-    <row r="49" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>30</v>
       </c>
@@ -14882,7 +14895,7 @@
         <v>91.1</v>
       </c>
     </row>
-    <row r="50" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>30</v>
       </c>
@@ -15151,7 +15164,7 @@
         <v>20.423697196506112</v>
       </c>
     </row>
-    <row r="51" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>30</v>
       </c>
@@ -15420,7 +15433,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="52" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>30</v>
       </c>
@@ -15689,7 +15702,7 @@
         <v>10.601070457236556</v>
       </c>
     </row>
-    <row r="53" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>30</v>
       </c>
@@ -15958,7 +15971,7 @@
         <v>59.802024474826254</v>
       </c>
     </row>
-    <row r="54" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>30</v>
       </c>
@@ -16227,7 +16240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>30</v>
       </c>
@@ -16496,7 +16509,7 @@
         <v>47.27</v>
       </c>
     </row>
-    <row r="56" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>30</v>
       </c>
@@ -16765,7 +16778,7 @@
         <v>59.150778092471079</v>
       </c>
     </row>
-    <row r="57" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>30</v>
       </c>
@@ -17034,7 +17047,7 @@
         <v>37.969450061735515</v>
       </c>
     </row>
-    <row r="58" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>30</v>
       </c>
@@ -17303,7 +17316,7 @@
         <v>92.04</v>
       </c>
     </row>
-    <row r="59" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>30</v>
       </c>
@@ -17572,7 +17585,7 @@
         <v>45.33</v>
       </c>
     </row>
-    <row r="60" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>30</v>
       </c>
@@ -17841,7 +17854,7 @@
         <v>72.77</v>
       </c>
     </row>
-    <row r="61" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>162</v>
       </c>
@@ -17858,10 +17871,10 @@
         <v>163</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H61" s="2">
         <v>2015</v>
@@ -18110,7 +18123,7 @@
         <v>0.53063032723550074</v>
       </c>
     </row>
-    <row r="62" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>162</v>
       </c>
@@ -18121,16 +18134,16 @@
         <v>61</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>312</v>
+        <v>416</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>164</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H62" s="2">
         <v>2015</v>
@@ -18379,7 +18392,7 @@
         <v>0.77582788024373217</v>
       </c>
     </row>
-    <row r="63" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>162</v>
       </c>
@@ -18390,16 +18403,16 @@
         <v>62</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>165</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H63" s="2">
         <v>2015</v>
@@ -18648,7 +18661,7 @@
         <v>0.51076401806349692</v>
       </c>
     </row>
-    <row r="64" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>162</v>
       </c>
@@ -18659,16 +18672,16 @@
         <v>63</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>166</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H64" s="2">
         <v>2015</v>
@@ -18917,7 +18930,7 @@
         <v>0.57604103404641427</v>
       </c>
     </row>
-    <row r="65" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>162</v>
       </c>
@@ -18928,16 +18941,16 @@
         <v>64</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>312</v>
+        <v>417</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>167</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H65" s="2">
         <v>2015</v>
@@ -19186,7 +19199,7 @@
         <v>0.60546112736784252</v>
       </c>
     </row>
-    <row r="66" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>162</v>
       </c>
@@ -19197,16 +19210,16 @@
         <v>65</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>168</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H66" s="2">
         <v>2015</v>
@@ -19455,7 +19468,7 @@
         <v>0.41583911312395511</v>
       </c>
     </row>
-    <row r="67" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>162</v>
       </c>
@@ -19466,16 +19479,16 @@
         <v>66</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>169</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H67" s="2">
         <v>2015</v>
@@ -19724,7 +19737,7 @@
         <v>0.44358447087882247</v>
       </c>
     </row>
-    <row r="68" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>162</v>
       </c>
@@ -19735,16 +19748,16 @@
         <v>67</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>170</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H68" s="2">
         <v>2015</v>
@@ -19993,7 +20006,7 @@
         <v>0.42646163465239673</v>
       </c>
     </row>
-    <row r="69" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>162</v>
       </c>
@@ -20004,16 +20017,16 @@
         <v>68</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>171</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H69" s="2">
         <v>2015</v>
@@ -20262,7 +20275,7 @@
         <v>0.44626005901073534</v>
       </c>
     </row>
-    <row r="70" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>162</v>
       </c>
@@ -20273,16 +20286,16 @@
         <v>69</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>172</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H70" s="2">
         <v>2015</v>
@@ -20531,7 +20544,7 @@
         <v>0.347757354340123</v>
       </c>
     </row>
-    <row r="71" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>162</v>
       </c>
@@ -20542,16 +20555,16 @@
         <v>70</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>173</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H71" s="2">
         <v>2015</v>
@@ -20800,7 +20813,7 @@
         <v>0.42598847736971635</v>
       </c>
     </row>
-    <row r="72" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>162</v>
       </c>
@@ -20811,16 +20824,16 @@
         <v>71</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>174</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H72" s="2">
         <v>2015</v>
@@ -21069,7 +21082,7 @@
         <v>0.86294843049327352</v>
       </c>
     </row>
-    <row r="73" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>175</v>
       </c>
@@ -21083,13 +21096,13 @@
         <v>216</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H73" s="2">
         <v>2013</v>
@@ -21338,7 +21351,7 @@
         <v>72.77</v>
       </c>
     </row>
-    <row r="74" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>175</v>
       </c>
@@ -21349,16 +21362,16 @@
         <v>73</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H74" s="2">
         <v>2013</v>
@@ -21618,16 +21631,16 @@
         <v>74</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>322</v>
+        <v>418</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>176</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H75" s="2">
         <v>2013</v>
@@ -21887,16 +21900,16 @@
         <v>75</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>177</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H76" s="2">
         <v>2013</v>
@@ -22156,16 +22169,16 @@
         <v>76</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>178</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H77" s="2">
         <v>2013</v>
@@ -22414,7 +22427,7 @@
         <v>73.56</v>
       </c>
     </row>
-    <row r="78" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>175</v>
       </c>
@@ -22431,10 +22444,10 @@
         <v>179</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H78" s="2">
         <v>2013</v>
@@ -22683,7 +22696,7 @@
         <v>64.41</v>
       </c>
     </row>
-    <row r="79" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>175</v>
       </c>
@@ -22694,16 +22707,16 @@
         <v>78</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>180</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H79" s="2">
         <v>2013</v>
@@ -22952,7 +22965,7 @@
         <v>62.02</v>
       </c>
     </row>
-    <row r="80" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>175</v>
       </c>
@@ -22963,16 +22976,16 @@
         <v>79</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>181</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H80" s="2">
         <v>2013</v>
@@ -23221,7 +23234,7 @@
         <v>66.959999999999994</v>
       </c>
     </row>
-    <row r="81" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>175</v>
       </c>
@@ -23232,16 +23245,16 @@
         <v>80</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>323</v>
+        <v>419</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>182</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H81" s="2">
         <v>2013</v>
@@ -23490,7 +23503,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="82" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>175</v>
       </c>
@@ -23501,16 +23514,16 @@
         <v>81</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>183</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H82" s="2">
         <v>2013</v>
@@ -23759,7 +23772,7 @@
         <v>6.97</v>
       </c>
     </row>
-    <row r="83" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>175</v>
       </c>
@@ -23770,16 +23783,16 @@
         <v>82</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>184</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H83" s="2">
         <v>2013</v>
@@ -24028,7 +24041,7 @@
         <v>8.58</v>
       </c>
     </row>
-    <row r="84" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>175</v>
       </c>
@@ -24039,16 +24052,16 @@
         <v>83</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>185</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H84" s="2">
         <v>2013</v>
@@ -24297,7 +24310,7 @@
         <v>16.05</v>
       </c>
     </row>
-    <row r="85" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>175</v>
       </c>
@@ -24308,16 +24321,16 @@
         <v>84</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>186</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H85" s="2">
         <v>2013</v>
@@ -24566,7 +24579,7 @@
         <v>17.29</v>
       </c>
     </row>
-    <row r="86" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>175</v>
       </c>
@@ -24577,16 +24590,16 @@
         <v>85</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>187</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H86" s="2">
         <v>2013</v>
@@ -24835,7 +24848,7 @@
         <v>14.72</v>
       </c>
     </row>
-    <row r="87" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>188</v>
       </c>
@@ -24846,16 +24859,16 @@
         <v>86</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>189</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H87" s="2">
         <v>2013</v>
@@ -25104,7 +25117,7 @@
         <v>80.08</v>
       </c>
     </row>
-    <row r="88" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>188</v>
       </c>
@@ -25115,16 +25128,16 @@
         <v>87</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>190</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H88" s="2">
         <v>2013</v>
@@ -25373,7 +25386,7 @@
         <v>76.44</v>
       </c>
     </row>
-    <row r="89" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>188</v>
       </c>
@@ -25384,16 +25397,16 @@
         <v>88</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>191</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H89" s="2">
         <v>2013</v>
@@ -25642,7 +25655,7 @@
         <v>69.27</v>
       </c>
     </row>
-    <row r="90" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>188</v>
       </c>
@@ -25653,16 +25666,16 @@
         <v>89</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>192</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H90" s="2">
         <v>2013</v>
@@ -25911,7 +25924,7 @@
         <v>73.75</v>
       </c>
     </row>
-    <row r="91" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>188</v>
       </c>
@@ -25922,16 +25935,16 @@
         <v>90</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>193</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H91" s="2">
         <v>2013</v>
@@ -26180,7 +26193,7 @@
         <v>73.819999999999993</v>
       </c>
     </row>
-    <row r="92" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>188</v>
       </c>
@@ -26191,16 +26204,16 @@
         <v>91</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>194</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H92" s="2">
         <v>2013</v>
@@ -26449,7 +26462,7 @@
         <v>61.45</v>
       </c>
     </row>
-    <row r="93" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>188</v>
       </c>
@@ -26460,16 +26473,16 @@
         <v>92</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>195</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H93" s="2">
         <v>2013</v>
@@ -26718,7 +26731,7 @@
         <v>6.84</v>
       </c>
     </row>
-    <row r="94" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>188</v>
       </c>
@@ -26729,16 +26742,16 @@
         <v>93</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>196</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H94" s="2">
         <v>2013</v>
@@ -26987,7 +27000,7 @@
         <v>8.4600000000000009</v>
       </c>
     </row>
-    <row r="95" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>188</v>
       </c>
@@ -26998,16 +27011,16 @@
         <v>94</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>197</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H95" s="2">
         <v>2013</v>
@@ -27256,7 +27269,7 @@
         <v>11.28</v>
       </c>
     </row>
-    <row r="96" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>188</v>
       </c>
@@ -27267,16 +27280,16 @@
         <v>95</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>342</v>
+        <v>420</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>198</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H96" s="2">
         <v>2013</v>
@@ -27525,7 +27538,7 @@
         <v>9.2899999999999991</v>
       </c>
     </row>
-    <row r="97" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>188</v>
       </c>
@@ -27536,16 +27549,16 @@
         <v>96</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>199</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H97" s="2">
         <v>2013</v>
@@ -27794,7 +27807,7 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="98" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>188</v>
       </c>
@@ -27805,16 +27818,16 @@
         <v>97</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>200</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H98" s="2">
         <v>2013</v>
@@ -28063,7 +28076,7 @@
         <v>17.34</v>
       </c>
     </row>
-    <row r="99" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>215</v>
       </c>
@@ -28074,16 +28087,16 @@
         <v>98</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H99" s="2">
         <v>2004</v>
@@ -28332,7 +28345,7 @@
         <v>4.9509999999999996</v>
       </c>
     </row>
-    <row r="100" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>215</v>
       </c>
@@ -28343,16 +28356,16 @@
         <v>99</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>202</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H100" s="2">
         <v>2005</v>
@@ -28601,7 +28614,7 @@
         <v>5.9859999999999998</v>
       </c>
     </row>
-    <row r="101" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>215</v>
       </c>
@@ -28612,16 +28625,16 @@
         <v>100</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>203</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H101" s="2">
         <v>2006</v>
@@ -28870,7 +28883,7 @@
         <v>6.7859999999999996</v>
       </c>
     </row>
-    <row r="102" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>215</v>
       </c>
@@ -28881,16 +28894,16 @@
         <v>101</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>204</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H102" s="2">
         <v>2007</v>
@@ -29139,7 +29152,7 @@
         <v>8.3160000000000007</v>
       </c>
     </row>
-    <row r="103" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>215</v>
       </c>
@@ -29150,16 +29163,16 @@
         <v>102</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>205</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H103" s="2">
         <v>2008</v>
@@ -29408,7 +29421,7 @@
         <v>9.5690000000000008</v>
       </c>
     </row>
-    <row r="104" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>215</v>
       </c>
@@ -29419,16 +29432,16 @@
         <v>103</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>206</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H104" s="2">
         <v>2009</v>
@@ -29677,7 +29690,7 @@
         <v>7.5590000000000002</v>
       </c>
     </row>
-    <row r="105" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>215</v>
       </c>
@@ -29688,16 +29701,16 @@
         <v>104</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>207</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H105" s="2">
         <v>2010</v>
@@ -29946,7 +29959,7 @@
         <v>8.9510000000000005</v>
       </c>
     </row>
-    <row r="106" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>215</v>
       </c>
@@ -29957,16 +29970,16 @@
         <v>105</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>208</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H106" s="2">
         <v>2011</v>
@@ -30215,7 +30228,7 @@
         <v>9.5009999999999994</v>
       </c>
     </row>
-    <row r="107" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>215</v>
       </c>
@@ -30226,16 +30239,16 @@
         <v>106</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>209</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H107" s="2">
         <v>2012</v>
@@ -30484,7 +30497,7 @@
         <v>10.292</v>
       </c>
     </row>
-    <row r="108" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>215</v>
       </c>
@@ -30495,16 +30508,16 @@
         <v>107</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>210</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H108" s="2">
         <v>2013</v>
@@ -30753,7 +30766,7 @@
         <v>10.946</v>
       </c>
     </row>
-    <row r="109" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>215</v>
       </c>
@@ -30764,16 +30777,16 @@
         <v>108</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>211</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H109" s="2">
         <v>2014</v>
@@ -31022,7 +31035,7 @@
         <v>10.989000000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>215</v>
       </c>
@@ -31033,16 +31046,16 @@
         <v>109</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>212</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H110" s="2">
         <v>2015</v>
@@ -31291,7 +31304,7 @@
         <v>10.379</v>
       </c>
     </row>
-    <row r="111" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>215</v>
       </c>
@@ -31302,16 +31315,16 @@
         <v>110</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>213</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H111" s="2">
         <v>2016</v>
@@ -31560,7 +31573,7 @@
         <v>9.843</v>
       </c>
     </row>
-    <row r="112" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>215</v>
       </c>
@@ -31571,16 +31584,16 @@
         <v>111</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>214</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H112" s="2">
         <v>2017</v>
@@ -31829,7 +31842,7 @@
         <v>9.2799999999999994</v>
       </c>
     </row>
-    <row r="113" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>216</v>
       </c>
@@ -31840,16 +31853,16 @@
         <v>112</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H113" s="2">
         <v>2007</v>
@@ -32098,7 +32111,7 @@
         <v>125.96</v>
       </c>
     </row>
-    <row r="114" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>216</v>
       </c>
@@ -32109,16 +32122,16 @@
         <v>113</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>218</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H114" s="2">
         <v>2008</v>
@@ -32367,7 +32380,7 @@
         <v>128.01</v>
       </c>
     </row>
-    <row r="115" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>216</v>
       </c>
@@ -32378,16 +32391,16 @@
         <v>114</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>219</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H115" s="2">
         <v>2009</v>
@@ -32636,7 +32649,7 @@
         <v>130.56</v>
       </c>
     </row>
-    <row r="116" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>216</v>
       </c>
@@ -32647,16 +32660,16 @@
         <v>115</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>220</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H116" s="2">
         <v>2010</v>
@@ -32905,7 +32918,7 @@
         <v>131.74</v>
       </c>
     </row>
-    <row r="117" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>216</v>
       </c>
@@ -32916,16 +32929,16 @@
         <v>116</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>221</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H117" s="2">
         <v>2011</v>
@@ -33174,7 +33187,7 @@
         <v>133.29</v>
       </c>
     </row>
-    <row r="118" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>216</v>
       </c>
@@ -33185,16 +33198,16 @@
         <v>117</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>222</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H118" s="2">
         <v>2012</v>
@@ -33443,7 +33456,7 @@
         <v>134.97999999999999</v>
       </c>
     </row>
-    <row r="119" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
         <v>216</v>
       </c>
@@ -33454,16 +33467,16 @@
         <v>118</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>223</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H119" s="2">
         <v>2013</v>
@@ -33712,7 +33725,7 @@
         <v>136.93</v>
       </c>
     </row>
-    <row r="120" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
         <v>216</v>
       </c>
@@ -33723,16 +33736,16 @@
         <v>119</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>224</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H120" s="2">
         <v>2014</v>
@@ -33981,7 +33994,7 @@
         <v>138.51</v>
       </c>
     </row>
-    <row r="121" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
         <v>216</v>
       </c>
@@ -33992,16 +34005,16 @@
         <v>120</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>225</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H121" s="2">
         <v>2015</v>
@@ -34250,7 +34263,7 @@
         <v>140.38999999999999</v>
       </c>
     </row>
-    <row r="122" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
         <v>216</v>
       </c>
@@ -34261,16 +34274,16 @@
         <v>121</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>226</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H122" s="2">
         <v>2016</v>
@@ -34519,7 +34532,7 @@
         <v>144.28</v>
       </c>
     </row>
-    <row r="123" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>216</v>
       </c>
@@ -34530,16 +34543,16 @@
         <v>122</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>227</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H123" s="2">
         <v>2017</v>
@@ -34788,7 +34801,7 @@
         <v>147.1</v>
       </c>
     </row>
-    <row r="124" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>216</v>
       </c>
@@ -34799,16 +34812,16 @@
         <v>123</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>228</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H124" s="2">
         <v>2018</v>
@@ -35057,7 +35070,7 @@
         <v>151.09</v>
       </c>
     </row>
-    <row r="125" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>239</v>
       </c>
@@ -35068,16 +35081,16 @@
         <v>124</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>229</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H125" s="2">
         <v>2009</v>
@@ -35326,7 +35339,7 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="126" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>239</v>
       </c>
@@ -35337,16 +35350,16 @@
         <v>125</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>230</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H126" s="2">
         <v>2010</v>
@@ -35595,7 +35608,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="127" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
         <v>239</v>
       </c>
@@ -35606,16 +35619,16 @@
         <v>126</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>231</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H127" s="2">
         <v>2011</v>
@@ -35864,7 +35877,7 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="128" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
         <v>239</v>
       </c>
@@ -35875,16 +35888,16 @@
         <v>127</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>232</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H128" s="2">
         <v>2012</v>
@@ -36133,7 +36146,7 @@
         <v>1.81</v>
       </c>
     </row>
-    <row r="129" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
         <v>239</v>
       </c>
@@ -36144,16 +36157,16 @@
         <v>128</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>233</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H129" s="2">
         <v>2013</v>
@@ -36402,7 +36415,7 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="130" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
         <v>239</v>
       </c>
@@ -36413,16 +36426,16 @@
         <v>129</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>234</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H130" s="2">
         <v>2014</v>
@@ -36671,7 +36684,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="131" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>239</v>
       </c>
@@ -36682,16 +36695,16 @@
         <v>130</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>235</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H131" s="2">
         <v>2015</v>
@@ -36940,7 +36953,7 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="132" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>239</v>
       </c>
@@ -36951,16 +36964,16 @@
         <v>131</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>236</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H132" s="2">
         <v>2016</v>
@@ -37209,7 +37222,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="133" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>239</v>
       </c>
@@ -37220,16 +37233,16 @@
         <v>132</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>237</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H133" s="2">
         <v>2017</v>
@@ -37478,7 +37491,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="134" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>239</v>
       </c>
@@ -37489,16 +37502,16 @@
         <v>133</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H134" s="2">
         <v>2018</v>
@@ -37747,7 +37760,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="135" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
         <v>251</v>
       </c>
@@ -37758,16 +37771,16 @@
         <v>134</v>
       </c>
       <c r="D135" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>240</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H135" s="2">
         <v>2008</v>
@@ -38016,7 +38029,7 @@
         <v>16.21</v>
       </c>
     </row>
-    <row r="136" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
         <v>251</v>
       </c>
@@ -38027,16 +38040,16 @@
         <v>135</v>
       </c>
       <c r="D136" s="12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>241</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H136" s="2">
         <v>2009</v>
@@ -38285,7 +38298,7 @@
         <v>19.72</v>
       </c>
     </row>
-    <row r="137" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
         <v>251</v>
       </c>
@@ -38296,16 +38309,16 @@
         <v>136</v>
       </c>
       <c r="D137" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>242</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H137" s="2">
         <v>2010</v>
@@ -38554,7 +38567,7 @@
         <v>9.01</v>
       </c>
     </row>
-    <row r="138" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
         <v>251</v>
       </c>
@@ -38565,16 +38578,16 @@
         <v>137</v>
       </c>
       <c r="D138" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>243</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H138" s="2">
         <v>2011</v>
@@ -38823,7 +38836,7 @@
         <v>11.64</v>
       </c>
     </row>
-    <row r="139" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
         <v>251</v>
       </c>
@@ -38834,16 +38847,16 @@
         <v>138</v>
       </c>
       <c r="D139" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>244</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H139" s="2">
         <v>2012</v>
@@ -39092,7 +39105,7 @@
         <v>12.63</v>
       </c>
     </row>
-    <row r="140" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
         <v>251</v>
       </c>
@@ -39103,16 +39116,16 @@
         <v>139</v>
       </c>
       <c r="D140" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>245</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H140" s="2">
         <v>2013</v>
@@ -39361,7 +39374,7 @@
         <v>14.37</v>
       </c>
     </row>
-    <row r="141" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
         <v>251</v>
       </c>
@@ -39372,16 +39385,16 @@
         <v>140</v>
       </c>
       <c r="D141" s="12" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>246</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H141" s="2">
         <v>2014</v>
@@ -39630,7 +39643,7 @@
         <v>11.43</v>
       </c>
     </row>
-    <row r="142" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
         <v>251</v>
       </c>
@@ -39641,16 +39654,16 @@
         <v>141</v>
       </c>
       <c r="D142" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>247</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H142" s="2">
         <v>2015</v>
@@ -39899,7 +39912,7 @@
         <v>13.52</v>
       </c>
     </row>
-    <row r="143" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
         <v>251</v>
       </c>
@@ -39910,16 +39923,16 @@
         <v>142</v>
       </c>
       <c r="D143" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>248</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H143" s="2">
         <v>2016</v>
@@ -40168,7 +40181,7 @@
         <v>27.32</v>
       </c>
     </row>
-    <row r="144" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
         <v>251</v>
       </c>
@@ -40179,16 +40192,16 @@
         <v>143</v>
       </c>
       <c r="D144" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>249</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H144" s="2">
         <v>2017</v>
@@ -40437,7 +40450,7 @@
         <v>19.36</v>
       </c>
     </row>
-    <row r="145" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
         <v>251</v>
       </c>
@@ -40448,16 +40461,16 @@
         <v>144</v>
       </c>
       <c r="D145" s="12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>250</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H145" s="2">
         <v>2018</v>
@@ -40706,7 +40719,7 @@
         <v>26.74</v>
       </c>
     </row>
-    <row r="146" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
         <v>252</v>
       </c>
@@ -40717,16 +40730,16 @@
         <v>145</v>
       </c>
       <c r="D146" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>253</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H146" s="2">
         <v>2013</v>
@@ -40986,16 +40999,16 @@
         <v>146</v>
       </c>
       <c r="D147" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>254</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H147" s="2">
         <v>2013</v>
@@ -41244,7 +41257,7 @@
         <v>73.72</v>
       </c>
     </row>
-    <row r="148" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
         <v>252</v>
       </c>
@@ -41255,16 +41268,16 @@
         <v>147</v>
       </c>
       <c r="D148" s="12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>256</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H148" s="2">
         <v>2013</v>
@@ -41513,7 +41526,7 @@
         <v>71.84</v>
       </c>
     </row>
-    <row r="149" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
         <v>252</v>
       </c>
@@ -41524,16 +41537,16 @@
         <v>148</v>
       </c>
       <c r="D149" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>255</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H149" s="2">
         <v>2013</v>
@@ -41782,7 +41795,7 @@
         <v>10.050000000000001</v>
       </c>
     </row>
-    <row r="150" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
         <v>252</v>
       </c>
@@ -41793,16 +41806,16 @@
         <v>149</v>
       </c>
       <c r="D150" s="12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>257</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H150" s="2">
         <v>2013</v>
@@ -42051,7 +42064,7 @@
         <v>9.92</v>
       </c>
     </row>
-    <row r="151" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:89" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
         <v>252</v>
       </c>
@@ -42062,16 +42075,16 @@
         <v>150</v>
       </c>
       <c r="D151" s="12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>258</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H151" s="2">
         <v>2013</v>
@@ -42321,6 +42334,17 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CK151">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="HM"/>
+        <filter val="HMA"/>
+        <filter val="HMHI"/>
+        <filter val="HMM"/>
+        <filter val="HMW"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
